--- a/similarities/split_global/harmonic_similarity_timestamps_373.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_373.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+          <t>('0:01:30.128000', '0:01:39.300000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+          <t>('0:00:07.700000', '0:00:22.160000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'C:7/A#', 'C#:maj/G#']]</t>
+          <t>['B', 'Gb', 'B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'F']]</t>
+          <t>['F#/A#', 'C#', 'F#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:50.980000', '0:00:58.900000')]</t>
+          <t>('0:00:15.552131', '0:00:21.368730')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:53.673000', '0:01:00.522000')]</t>
+          <t>('0:00:54.480000', '0:00:59.100000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=50.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=15.552131</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=53.673']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=54.48</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
+          <t>('0:00:22.300000', '0:00:49.660000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:19.672232')]</t>
+          <t>('0:00:47.020000', '0:01:01.580000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=22.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:50.130000', '0:00:59.490000')]</t>
+          <t>('0:00:12.320000', '0:00:19.900000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:00:15.660000', '0:00:39.960000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=12.32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=15.66</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:06.740000', '0:00:08.340000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=6.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A', 'E']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:13.384180', '0:00:22.457415')]</t>
+          <t>('0:00:16.040000', '0:00:24.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:58.940000', '0:01:07.080000')]</t>
+          <t>('0:00:30.050000', '0:00:38.220000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=13.38418']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=58.94']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+          <t>('0:01:14.700000', '0:01:34.120000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+          <t>('0:00:27.760000', '0:00:40.180000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>['D:7', 'G:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['Eb:7', 'Ab', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:46.900000', '0:00:55.240000')]</t>
+          <t>('0:00:06.840000', '0:00:14.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:30.494172', '0:00:33.431496')]</t>
+          <t>('0:00:45.320000', '0:00:48.590000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=46.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=6.84</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=30.494172']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=45.32</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.920000')]</t>
+          <t>('0:00:02.860000', '0:00:07.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:38.620000', '0:00:44.060000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:00:40.280000', '0:00:45.520000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:01.260000', '0:00:05.920000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
+          <t>('0:01:20.220000', '0:01:27.220000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:42.080000', '0:00:57.880000'), ('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:00:08.700000', '0:00:18.300000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:19.140000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:01:08.150589', '0:01:20.236575')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+          <t>('0:02:13.780000', '0:02:15.340000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=133.78</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:30.531803', '0:00:36.267131')]</t>
+          <t>('0:01:58.180000', '0:02:03.040000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:15.560000')]</t>
+          <t>('0:00:19.980000', '0:00:28.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=30.531803']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Ab/5', 'Eb', 'Ab/5', 'Eb']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:27.320000', '0:00:29.840000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:18.978000', '0:00:25.693000')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=27.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
